--- a/data/样例数据表.xlsx
+++ b/data/样例数据表.xlsx
@@ -3,13 +3,8 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tangcheng1\Documents\Visual Studio 2012\Projects\AutoCompare\AutoCompare\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17655" windowHeight="6570" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="完钻井数据" sheetId="4" r:id="rId1"/>
@@ -25,6 +20,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">小层数据!$A$2:$AJ$254</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
+  <oleSize ref="A16:O37"/>
 </workbook>
 </file>
 
@@ -1582,7 +1578,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1754,8 +1750,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3069,8 +3065,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N254"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L72" sqref="L72"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B9" sqref="B8:J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -13653,7 +13649,7 @@
         <v>67.430000000000007</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" ht="409.6">
       <c r="A27" s="26">
         <v>24</v>
       </c>
@@ -13667,7 +13663,7 @@
         <v>69.91</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" ht="409.6">
       <c r="A28" s="26">
         <v>25</v>
       </c>
@@ -13681,7 +13677,7 @@
         <v>67.239999999999995</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" ht="409.6">
       <c r="A29" s="26">
         <v>26</v>
       </c>
@@ -13695,7 +13691,7 @@
         <v>66.260000000000005</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" ht="409.6">
       <c r="A30" s="26">
         <v>27</v>
       </c>
@@ -13709,7 +13705,7 @@
         <v>68.39</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" ht="409.6">
       <c r="A31" s="26">
         <v>28</v>
       </c>
@@ -13723,7 +13719,7 @@
         <v>64.05</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" ht="409.6">
       <c r="A32" s="26">
         <v>29</v>
       </c>
@@ -13737,7 +13733,7 @@
         <v>61.59</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" ht="409.6">
       <c r="A33" s="26">
         <v>30</v>
       </c>
@@ -13751,7 +13747,7 @@
         <v>73.23</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" ht="409.6">
       <c r="A34" s="26">
         <v>31</v>
       </c>
@@ -13765,7 +13761,7 @@
         <v>56.94</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" ht="409.6">
       <c r="A35" s="26">
         <v>32</v>
       </c>
@@ -13779,7 +13775,7 @@
         <v>56.51</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" ht="409.6">
       <c r="A36" s="26">
         <v>33</v>
       </c>
@@ -13793,7 +13789,7 @@
         <v>60.21</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" ht="409.6">
       <c r="A37" s="26">
         <v>34</v>
       </c>
@@ -13807,7 +13803,7 @@
         <v>50.65</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" ht="409.6">
       <c r="A38" s="26">
         <v>35</v>
       </c>
@@ -13821,7 +13817,7 @@
         <v>57.33</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" ht="409.6">
       <c r="A39" s="26">
         <v>36</v>
       </c>
@@ -13835,7 +13831,7 @@
         <v>55.65</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" ht="409.6">
       <c r="A40" s="26">
         <v>37</v>
       </c>
@@ -13849,7 +13845,7 @@
         <v>46.5</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" ht="409.6">
       <c r="A41" s="26">
         <v>38</v>
       </c>
@@ -13863,7 +13859,7 @@
         <v>42.51</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" ht="409.6">
       <c r="A42" s="26">
         <v>39</v>
       </c>
@@ -13892,7 +13888,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
